--- a/resources/wheels/173 - Лапуцкий.xlsx
+++ b/resources/wheels/173 - Лапуцкий.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -687,16 +687,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="24" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -903,9 +903,9 @@
       <c r="F16" s="23">
         <v>2</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>11.200000000000001</v>
+        <v>16.149</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -973,7 +973,9 @@
       <c r="E21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="23"/>
+      <c r="F21" s="23" t="n">
+        <v>2.059</v>
+      </c>
       <c r="G21" s="23"/>
       <c r="H21" s="5"/>
     </row>
@@ -985,7 +987,9 @@
       <c r="E22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="23"/>
+      <c r="F22" s="23" t="n">
+        <v>2.125</v>
+      </c>
       <c r="G22" s="23"/>
       <c r="H22" s="5"/>
     </row>
@@ -997,7 +1001,9 @@
       <c r="E23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="23"/>
+      <c r="F23" s="23" t="n">
+        <v>0.765</v>
+      </c>
       <c r="G23" s="23"/>
       <c r="H23" s="5"/>
     </row>
@@ -1561,16 +1567,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1787,9 +1793,9 @@
       <c r="F16" s="23">
         <v>2</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>11.200000000000001</v>
+        <v>16.149</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1857,7 +1863,9 @@
       <c r="E21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="23"/>
+      <c r="F21" s="23" t="n">
+        <v>2.059</v>
+      </c>
       <c r="G21" s="23"/>
       <c r="H21" s="5"/>
     </row>
@@ -1869,7 +1877,9 @@
       <c r="E22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="23"/>
+      <c r="F22" s="23" t="n">
+        <v>2.125</v>
+      </c>
       <c r="G22" s="23"/>
       <c r="H22" s="5"/>
     </row>
@@ -1881,7 +1891,9 @@
       <c r="E23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="23"/>
+      <c r="F23" s="23" t="n">
+        <v>0.765</v>
+      </c>
       <c r="G23" s="23"/>
       <c r="H23" s="5"/>
     </row>
@@ -2447,16 +2459,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="21" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2665,9 +2677,9 @@
       <c r="F16" s="23">
         <v>16</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>30.6</v>
+        <v>35.549</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2777,7 +2789,9 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>2.059</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -2789,7 +2803,9 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>2.125</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -2801,7 +2817,9 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>0.765</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -3339,16 +3357,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3567,9 +3585,9 @@
       <c r="F16" s="23">
         <v>16</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>30.6</v>
+        <v>35.549</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3679,7 +3697,9 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>2.059</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -3691,7 +3711,9 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>2.125</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -3703,7 +3725,9 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>0.765</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -4241,16 +4265,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4457,9 +4481,9 @@
       <c r="F16" s="23">
         <v>83.4</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>98</v>
+        <v>102.949</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4569,7 +4593,9 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>2.059</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -4581,7 +4607,9 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>2.125</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -4593,7 +4621,9 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>0.765</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -5131,16 +5161,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5347,9 +5377,9 @@
       <c r="F16" s="23">
         <v>83.4</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>98</v>
+        <v>102.949</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5459,7 +5489,9 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>2.059</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -5471,7 +5503,9 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>2.125</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -5483,7 +5517,9 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>0.765</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -6024,16 +6060,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6240,9 +6276,9 @@
       <c r="F16" s="23">
         <v>108.4</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>123</v>
+        <v>127.949</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6352,7 +6388,9 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>2.059</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -6364,7 +6402,9 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>2.125</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -6376,7 +6416,9 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>0.765</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>

--- a/resources/wheels/173 - Лапуцкий.xlsx
+++ b/resources/wheels/173 - Лапуцкий.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="56">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -157,6 +157,42 @@
   </si>
   <si>
     <t>до 01.12.2019</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -682,7 +718,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E27" sqref="E27:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -905,7 +941,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>16.149</v>
+        <v>18.682999999999996</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -973,8 +1009,8 @@
       <c r="E21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="23" t="n">
-        <v>2.059</v>
+      <c r="F21" s="23">
+        <v>2.0590000000000002</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="5"/>
@@ -987,7 +1023,7 @@
       <c r="E22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="23" t="n">
+      <c r="F22" s="23">
         <v>2.125</v>
       </c>
       <c r="G22" s="23"/>
@@ -1001,8 +1037,8 @@
       <c r="E23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="23" t="n">
-        <v>0.765</v>
+      <c r="F23" s="23">
+        <v>0.76500000000000001</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="5"/>
@@ -1015,7 +1051,9 @@
       <c r="E24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>1.33</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -1027,7 +1065,9 @@
       <c r="E25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>0</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -1039,7 +1079,9 @@
       <c r="E26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>0.33</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -1048,7 +1090,12 @@
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
-      <c r="F27" s="23"/>
+      <c r="E27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="23" t="n">
+        <v>0.874</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -1057,6 +1104,9 @@
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
+      <c r="E28" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
@@ -1065,6 +1115,9 @@
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
+      <c r="E29" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="5"/>
@@ -1073,6 +1126,9 @@
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
+      <c r="E30" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -1082,7 +1138,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="13"/>
+      <c r="E31" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -1092,7 +1150,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="13"/>
+      <c r="E32" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -1102,7 +1162,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="13"/>
+      <c r="E33" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -1112,7 +1174,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="13"/>
+      <c r="E34" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -1122,7 +1186,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="13"/>
+      <c r="E35" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -1132,7 +1198,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="13"/>
+      <c r="E36" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -1142,7 +1210,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="13"/>
+      <c r="E37" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -1152,7 +1222,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="13"/>
+      <c r="E38" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -1561,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1867,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>16.149</v>
+        <v>18.682999999999996</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1863,8 +1935,8 @@
       <c r="E21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="23" t="n">
-        <v>2.059</v>
+      <c r="F21" s="23">
+        <v>2.0590000000000002</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="5"/>
@@ -1877,7 +1949,7 @@
       <c r="E22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="23" t="n">
+      <c r="F22" s="23">
         <v>2.125</v>
       </c>
       <c r="G22" s="23"/>
@@ -1891,8 +1963,8 @@
       <c r="E23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="23" t="n">
-        <v>0.765</v>
+      <c r="F23" s="23">
+        <v>0.76500000000000001</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="5"/>
@@ -1905,7 +1977,9 @@
       <c r="E24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>1.33</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -1917,7 +1991,9 @@
       <c r="E25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>0</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -1929,7 +2005,9 @@
       <c r="E26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>0.33</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -1938,8 +2016,12 @@
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="23"/>
+      <c r="E27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="23" t="n">
+        <v>0.874</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -1948,7 +2030,9 @@
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
-      <c r="E28" s="24"/>
+      <c r="E28" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
@@ -1957,6 +2041,9 @@
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
+      <c r="E29" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="5"/>
@@ -1965,6 +2052,9 @@
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
+      <c r="E30" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -1974,7 +2064,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -1984,7 +2076,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -1994,7 +2088,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -2004,7 +2100,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -2014,7 +2112,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -2024,7 +2124,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -2034,7 +2136,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -2044,7 +2148,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -2679,7 +2785,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>35.549</v>
+        <v>37.208999999999996</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2789,8 +2895,8 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>2.059</v>
+      <c r="F24" s="23">
+        <v>2.0590000000000002</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -2803,7 +2909,7 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="23">
         <v>2.125</v>
       </c>
       <c r="G25" s="23"/>
@@ -2817,8 +2923,8 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>0.765</v>
+      <c r="F26" s="23">
+        <v>0.76500000000000001</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -2831,7 +2937,9 @@
       <c r="E27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.33</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -2843,7 +2951,9 @@
       <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -2854,7 +2964,9 @@
       <c r="E29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>0.33</v>
+      </c>
       <c r="G29" s="12"/>
       <c r="H29" s="5"/>
     </row>
@@ -3587,7 +3699,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>35.549</v>
+        <v>37.208999999999996</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3697,8 +3809,8 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>2.059</v>
+      <c r="F24" s="23">
+        <v>2.0590000000000002</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -3711,7 +3823,7 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="23">
         <v>2.125</v>
       </c>
       <c r="G25" s="23"/>
@@ -3725,8 +3837,8 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>0.765</v>
+      <c r="F26" s="23">
+        <v>0.76500000000000001</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -3739,7 +3851,9 @@
       <c r="E27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.33</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -3751,7 +3865,9 @@
       <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -3762,7 +3878,9 @@
       <c r="E29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>0.33</v>
+      </c>
       <c r="G29" s="12"/>
       <c r="H29" s="5"/>
     </row>
@@ -4483,7 +4601,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>102.949</v>
+        <v>104.609</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4593,8 +4711,8 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>2.059</v>
+      <c r="F24" s="23">
+        <v>2.0590000000000002</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -4607,7 +4725,7 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="23">
         <v>2.125</v>
       </c>
       <c r="G25" s="23"/>
@@ -4621,8 +4739,8 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>0.765</v>
+      <c r="F26" s="23">
+        <v>0.76500000000000001</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -4635,7 +4753,9 @@
       <c r="E27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.33</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -4647,7 +4767,9 @@
       <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -4658,7 +4780,9 @@
       <c r="E29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>0.33</v>
+      </c>
       <c r="G29" s="12"/>
       <c r="H29" s="5"/>
     </row>
@@ -5379,7 +5503,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>102.949</v>
+        <v>104.609</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5489,8 +5613,8 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>2.059</v>
+      <c r="F24" s="23">
+        <v>2.0590000000000002</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -5503,7 +5627,7 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="23">
         <v>2.125</v>
       </c>
       <c r="G25" s="23"/>
@@ -5517,8 +5641,8 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>0.765</v>
+      <c r="F26" s="23">
+        <v>0.76500000000000001</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -5531,7 +5655,9 @@
       <c r="E27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.33</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -5543,7 +5669,9 @@
       <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -5554,7 +5682,9 @@
       <c r="E29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>0.33</v>
+      </c>
       <c r="G29" s="12"/>
       <c r="H29" s="5"/>
     </row>
@@ -6278,7 +6408,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>127.949</v>
+        <v>129.609</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6388,8 +6518,8 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>2.059</v>
+      <c r="F24" s="23">
+        <v>2.0590000000000002</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -6402,7 +6532,7 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="23">
         <v>2.125</v>
       </c>
       <c r="G25" s="23"/>
@@ -6416,8 +6546,8 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>0.765</v>
+      <c r="F26" s="23">
+        <v>0.76500000000000001</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -6430,7 +6560,9 @@
       <c r="E27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.33</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -6442,7 +6574,9 @@
       <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -6453,7 +6587,9 @@
       <c r="E29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>0.33</v>
+      </c>
       <c r="G29" s="12"/>
       <c r="H29" s="5"/>
     </row>
